--- a/doc/table/掉落池.xlsx
+++ b/doc/table/掉落池.xlsx
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -311,6 +311,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,9 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,82 +631,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>59</v>
       </c>
     </row>

--- a/doc/table/掉落池.xlsx
+++ b/doc/table/掉落池.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3840" windowWidth="14805" windowHeight="10185"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,6 +153,34 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:1000:1;10:1000:5;10:1000:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:1000:1;11:1000:5;11:1000:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:1000:1;11:1000:5;11:1000:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:1000:1;11:1000:5;11:1000:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:1000:1;11:1000:5;11:1000:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:1000:1;12:1000:5;12:1000:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000:1000:1;20001:1000:1;20002:1000:1;10:10000:2,11:10000:1,12:10000:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,7 +589,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -569,7 +597,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -577,7 +605,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -585,7 +613,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -593,7 +621,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -601,7 +629,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -609,7 +637,7 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -617,7 +645,7 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -625,7 +653,7 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -633,7 +661,7 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -641,7 +669,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -649,7 +677,7 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -657,7 +685,7 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -665,7 +693,7 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -673,7 +701,7 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -681,7 +709,7 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -689,7 +717,7 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">

--- a/doc/table/掉落池.xlsx
+++ b/doc/table/掉落池.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3840" windowWidth="14805" windowHeight="10185"/>
@@ -180,8 +180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000:1000:1;20001:1000:1;20002:1000:1;10:10000:2,11:10000:1,12:10000:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>20000:1000:1;20001:1000:1;20002:1000:1;10:10000:2;11:10000:1;12:10000:2</t>
   </si>
 </sst>
 </file>
@@ -277,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -319,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B6"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/掉落池.xlsx
+++ b/doc/table/掉落池.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3840" windowWidth="14805" windowHeight="10185"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,38 +149,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000:1000:1;20001:1000:1;20002:1000:1</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:1000:1;10:1000:5;10:1000:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:1000:1;11:1000:5;11:1000:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:1000:1;11:1000:5;11:1000:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:1000:1;11:1000:5;11:1000:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:1000:1;11:1000:5;11:1000:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:1000:1;12:1000:5;12:1000:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000:1000:1;20001:1000:1;20002:1000:1;10:10000:2;11:10000:1;12:10000:2</t>
+    <t>[[20000,1000,1],[20001,1000,1],[20002,1000,1],[10,10000,2],[11,10000,1],[12,10000,2]]</t>
+  </si>
+  <si>
+    <t>[[10,1000,1],[10,1000,5],[10,1000,10]]</t>
+  </si>
+  <si>
+    <t>[[11,1000,1],[11,1000,5],[11,1000,10]]</t>
+  </si>
+  <si>
+    <t>[[12,1000,1],[12,1000,5],[12,1000,10]]</t>
+  </si>
+  <si>
+    <t>[[20000,1000,1],[20001,1000,1],[20002,1000,1]]</t>
+  </si>
+  <si>
+    <t>[[]]</t>
+  </si>
+  <si>
+    <t>[[20000,1000,1],[20001,1000,1],[20002,1000,1],[10,10000,2],[11,10000,1],[12,10000,2]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -318,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,22 +554,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>31</v>
@@ -588,7 +580,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +588,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -604,7 +596,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -612,7 +604,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -620,7 +612,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -660,7 +652,7 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -676,7 +668,7 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -684,7 +676,7 @@
         <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -692,7 +684,7 @@
         <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -700,7 +692,7 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -708,7 +700,7 @@
         <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -716,7 +708,7 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -724,7 +716,7 @@
         <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -732,7 +724,7 @@
         <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -740,7 +732,7 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -748,7 +740,7 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -756,7 +748,7 @@
         <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -764,7 +756,7 @@
         <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -772,7 +764,7 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -780,7 +772,7 @@
         <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -788,7 +780,7 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -796,7 +788,7 @@
         <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -804,7 +796,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -812,7 +804,7 @@
         <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -820,7 +812,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -828,7 +820,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -836,7 +828,7 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -844,7 +836,7 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -852,7 +844,7 @@
         <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -860,7 +852,7 @@
         <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -868,7 +860,7 @@
         <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -876,7 +868,7 @@
         <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -884,7 +876,7 @@
         <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -892,7 +884,7 @@
         <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -900,7 +892,7 @@
         <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -908,7 +900,7 @@
         <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -916,7 +908,7 @@
         <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -924,7 +916,7 @@
         <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -932,7 +924,7 @@
         <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -940,7 +932,7 @@
         <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -948,7 +940,7 @@
         <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -956,7 +948,7 @@
         <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -964,7 +956,7 @@
         <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -972,7 +964,7 @@
         <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -980,7 +972,7 @@
         <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -988,7 +980,7 @@
         <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -996,7 +988,7 @@
         <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -1004,7 +996,7 @@
         <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -1012,7 +1004,7 @@
         <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -1020,7 +1012,7 @@
         <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -1028,7 +1020,7 @@
         <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -1036,7 +1028,7 @@
         <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -1044,7 +1036,7 @@
         <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -1052,7 +1044,7 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -1060,7 +1052,7 @@
         <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -1068,7 +1060,7 @@
         <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -1076,7 +1068,7 @@
         <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -1084,7 +1076,7 @@
         <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -1092,7 +1084,7 @@
         <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -1100,7 +1092,7 @@
         <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -1108,7 +1100,7 @@
         <v>165</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -1116,7 +1108,7 @@
         <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -1124,7 +1116,7 @@
         <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -1132,7 +1124,7 @@
         <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -1140,7 +1132,7 @@
         <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -1148,7 +1140,7 @@
         <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -1156,7 +1148,7 @@
         <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -1164,7 +1156,7 @@
         <v>172</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -1172,7 +1164,7 @@
         <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -1180,7 +1172,7 @@
         <v>174</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -1188,7 +1180,7 @@
         <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -1196,7 +1188,7 @@
         <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -1204,7 +1196,7 @@
         <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1212,7 +1204,7 @@
         <v>178</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1220,7 +1212,7 @@
         <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1228,7 +1220,7 @@
         <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1236,7 +1228,7 @@
         <v>181</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1244,7 +1236,7 @@
         <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1252,7 +1244,7 @@
         <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1260,7 +1252,7 @@
         <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1268,7 +1260,7 @@
         <v>185</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1276,7 +1268,7 @@
         <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1284,7 +1276,7 @@
         <v>187</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1292,7 +1284,7 @@
         <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1300,7 +1292,7 @@
         <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1308,7 +1300,7 @@
         <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1316,7 +1308,7 @@
         <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1324,7 +1316,7 @@
         <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1332,7 +1324,7 @@
         <v>193</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1340,7 +1332,7 @@
         <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1348,7 +1340,7 @@
         <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1356,7 +1348,7 @@
         <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1364,7 +1356,7 @@
         <v>197</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1372,7 +1364,7 @@
         <v>198</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1380,7 +1372,12 @@
         <v>199</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/掉落池.xlsx
+++ b/doc/table/掉落池.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,26 +153,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[20000,1000,1],[20001,1000,1],[20002,1000,1],[10,10000,2],[11,10000,1],[12,10000,2]]</t>
-  </si>
-  <si>
-    <t>[[10,1000,1],[10,1000,5],[10,1000,10]]</t>
-  </si>
-  <si>
-    <t>[[11,1000,1],[11,1000,5],[11,1000,10]]</t>
-  </si>
-  <si>
-    <t>[[12,1000,1],[12,1000,5],[12,1000,10]]</t>
-  </si>
-  <si>
-    <t>[[20000,1000,1],[20001,1000,1],[20002,1000,1]]</t>
-  </si>
-  <si>
-    <t>[[]]</t>
-  </si>
-  <si>
-    <t>[[20000,1000,1],[20001,1000,1],[20002,1000,1],[10,10000,2],[11,10000,1],[12,10000,2]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>[[20000,1000,1,""],[20001,1000,1,""],[20002,1000,1,""],[10,10000,2,""],[11,10000,1,""],[12,10000,2,""]]</t>
+  </si>
+  <si>
+    <t>[[10,1000,1,""],[10,1000,5,""],[10,1000,10,""]]</t>
+  </si>
+  <si>
+    <t>[[11,1000,1,""],[11,1000,5,""],[11,1000,10,""]]</t>
+  </si>
+  <si>
+    <t>[[12,1000,1,""],[12,1000,5,""],[12,1000,10,""]]</t>
+  </si>
+  <si>
+    <t>[[20000,1000,1,""],[20001,1000,1,""],[20002,1000,1,""]]</t>
+  </si>
+  <si>
+    <t>[[,""]]</t>
   </si>
 </sst>
 </file>
@@ -558,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,7 +576,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">

--- a/doc/table/掉落池.xlsx
+++ b/doc/table/掉落池.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="3840" windowWidth="14805" windowHeight="10185"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>[[20000,1000,1,""],[20001,1000,1,""],[20002,1000,1,""]]</t>
-  </si>
-  <si>
-    <t>[[,""]]</t>
   </si>
 </sst>
 </file>
@@ -264,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -306,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,11 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1369,11 +1366,6 @@
       </c>
       <c r="B101" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
